--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H2">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I2">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J2">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N2">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O2">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P2">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q2">
-        <v>122.1440285612433</v>
+        <v>183.0265054477816</v>
       </c>
       <c r="R2">
-        <v>1099.29625705119</v>
+        <v>1647.238549030035</v>
       </c>
       <c r="S2">
-        <v>0.02838104895036145</v>
+        <v>0.02195840366946755</v>
       </c>
       <c r="T2">
-        <v>0.02838104895036146</v>
+        <v>0.02195840366946755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H3">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I3">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J3">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.38936</v>
       </c>
       <c r="O3">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P3">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q3">
-        <v>44.17795495275556</v>
+        <v>59.11488417986667</v>
       </c>
       <c r="R3">
-        <v>397.6015945748001</v>
+        <v>532.0339576187999</v>
       </c>
       <c r="S3">
-        <v>0.01026506753387745</v>
+        <v>0.007092243205537673</v>
       </c>
       <c r="T3">
-        <v>0.01026506753387745</v>
+        <v>0.007092243205537674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H4">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I4">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J4">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N4">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O4">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P4">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q4">
-        <v>51.0389619315889</v>
+        <v>87.77406380335665</v>
       </c>
       <c r="R4">
-        <v>459.3506573843001</v>
+        <v>789.96657423021</v>
       </c>
       <c r="S4">
-        <v>0.01185927215614767</v>
+        <v>0.01053059675694674</v>
       </c>
       <c r="T4">
-        <v>0.01185927215614767</v>
+        <v>0.01053059675694675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.79785166666667</v>
+        <v>21.139235</v>
       </c>
       <c r="H5">
-        <v>47.39355500000001</v>
+        <v>63.417705</v>
       </c>
       <c r="I5">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="J5">
-        <v>0.1445757693628457</v>
+        <v>0.1633331201667119</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N5">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O5">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P5">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q5">
-        <v>404.852381947805</v>
+        <v>1031.48998650828</v>
       </c>
       <c r="R5">
-        <v>3643.671437530245</v>
+        <v>9283.409878574519</v>
       </c>
       <c r="S5">
-        <v>0.09407038072245913</v>
+        <v>0.12375187653476</v>
       </c>
       <c r="T5">
-        <v>0.09407038072245917</v>
+        <v>0.12375187653476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>223.189369</v>
       </c>
       <c r="I6">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J6">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N6">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O6">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P6">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q6">
-        <v>575.2100398820446</v>
+        <v>644.135108029618</v>
       </c>
       <c r="R6">
-        <v>5176.890358938402</v>
+        <v>5797.215972266563</v>
       </c>
       <c r="S6">
-        <v>0.1336542153630232</v>
+        <v>0.07727940106372103</v>
       </c>
       <c r="T6">
-        <v>0.1336542153630232</v>
+        <v>0.07727940106372104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>223.189369</v>
       </c>
       <c r="I7">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J7">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.38936</v>
       </c>
       <c r="O7">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P7">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q7">
         <v>208.0462183015378</v>
@@ -883,10 +883,10 @@
         <v>1872.41596471384</v>
       </c>
       <c r="S7">
-        <v>0.04834104438100272</v>
+        <v>0.02496011619844159</v>
       </c>
       <c r="T7">
-        <v>0.04834104438100272</v>
+        <v>0.0249601161984416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>223.189369</v>
       </c>
       <c r="I8">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J8">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N8">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O8">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P8">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q8">
-        <v>240.3565992871045</v>
+        <v>308.9080236321531</v>
       </c>
       <c r="R8">
-        <v>2163.20939358394</v>
+        <v>2780.172212689378</v>
       </c>
       <c r="S8">
-        <v>0.05584859522206908</v>
+        <v>0.03706090034914367</v>
       </c>
       <c r="T8">
-        <v>0.05584859522206908</v>
+        <v>0.03706090034914369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>223.189369</v>
       </c>
       <c r="I9">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353965</v>
       </c>
       <c r="J9">
-        <v>0.6808473164079603</v>
+        <v>0.5748271090353966</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N9">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O9">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P9">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q9">
-        <v>1906.561929466519</v>
+        <v>3630.178657814904</v>
       </c>
       <c r="R9">
-        <v>17159.05736519867</v>
+        <v>32671.60792033414</v>
       </c>
       <c r="S9">
-        <v>0.4430034614418652</v>
+        <v>0.4355266914240902</v>
       </c>
       <c r="T9">
-        <v>0.4430034614418653</v>
+        <v>0.4355266914240902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H10">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I10">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J10">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N10">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O10">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P10">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q10">
-        <v>20.92324639370533</v>
+        <v>35.10478153014589</v>
       </c>
       <c r="R10">
-        <v>188.309217543348</v>
+        <v>315.943033771313</v>
       </c>
       <c r="S10">
-        <v>0.00486166771388648</v>
+        <v>0.004211657550263057</v>
       </c>
       <c r="T10">
-        <v>0.00486166771388648</v>
+        <v>0.004211657550263057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H11">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I11">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J11">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.38936</v>
       </c>
       <c r="O11">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P11">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q11">
-        <v>7.567674388462223</v>
+        <v>11.33833096598222</v>
       </c>
       <c r="R11">
-        <v>68.10906949616</v>
+        <v>102.04497869384</v>
       </c>
       <c r="S11">
-        <v>0.001758403908805517</v>
+        <v>0.00136030378594588</v>
       </c>
       <c r="T11">
-        <v>0.001758403908805517</v>
+        <v>0.00136030378594588</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H12">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I12">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J12">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N12">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O12">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P12">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q12">
-        <v>8.742963440395556</v>
+        <v>16.83520824643089</v>
       </c>
       <c r="R12">
-        <v>78.68667096356</v>
+        <v>151.516874217878</v>
       </c>
       <c r="S12">
-        <v>0.002031490825183252</v>
+        <v>0.002019785591328728</v>
       </c>
       <c r="T12">
-        <v>0.002031490825183252</v>
+        <v>0.002019785591328728</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.706168666666667</v>
+        <v>4.054539666666667</v>
       </c>
       <c r="H13">
-        <v>8.118506</v>
+        <v>12.163619</v>
       </c>
       <c r="I13">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="J13">
-        <v>0.02476579887343077</v>
+        <v>0.03132755819197652</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N13">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O13">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P13">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q13">
-        <v>69.35112784760599</v>
+        <v>197.841457652904</v>
       </c>
       <c r="R13">
-        <v>624.1601506284539</v>
+        <v>1780.573118876136</v>
       </c>
       <c r="S13">
-        <v>0.01611423642555552</v>
+        <v>0.02373581126443886</v>
       </c>
       <c r="T13">
-        <v>0.01611423642555552</v>
+        <v>0.02373581126443886</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H14">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I14">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J14">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.731686</v>
+        <v>8.658142333333332</v>
       </c>
       <c r="N14">
-        <v>23.195058</v>
+        <v>25.974427</v>
       </c>
       <c r="O14">
-        <v>0.1963057092861305</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="P14">
-        <v>0.1963057092861306</v>
+        <v>0.1344393815966713</v>
       </c>
       <c r="Q14">
-        <v>126.56708128512</v>
+        <v>258.3055089698532</v>
       </c>
       <c r="R14">
-        <v>1139.10373156608</v>
+        <v>2324.749580728679</v>
       </c>
       <c r="S14">
-        <v>0.02940877725885941</v>
+        <v>0.03098991931321963</v>
       </c>
       <c r="T14">
-        <v>0.02940877725885942</v>
+        <v>0.03098991931321964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H15">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I15">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J15">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.38936</v>
       </c>
       <c r="O15">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="P15">
-        <v>0.07100129972758387</v>
+        <v>0.04342195384682981</v>
       </c>
       <c r="Q15">
-        <v>45.77771735040001</v>
+        <v>83.42890123163556</v>
       </c>
       <c r="R15">
-        <v>411.9994561536001</v>
+        <v>750.86011108472</v>
       </c>
       <c r="S15">
-        <v>0.01063678390389819</v>
+        <v>0.01000929065690466</v>
       </c>
       <c r="T15">
-        <v>0.01063678390389819</v>
+        <v>0.01000929065690467</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H16">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I16">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J16">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.230753333333334</v>
+        <v>4.152187333333333</v>
       </c>
       <c r="N16">
-        <v>9.692260000000001</v>
+        <v>12.456562</v>
       </c>
       <c r="O16">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305152</v>
       </c>
       <c r="P16">
-        <v>0.08202807571705972</v>
+        <v>0.06447312551305154</v>
       </c>
       <c r="Q16">
-        <v>52.88717360640002</v>
+        <v>123.8756330380082</v>
       </c>
       <c r="R16">
-        <v>475.9845624576001</v>
+        <v>1114.880697342074</v>
       </c>
       <c r="S16">
-        <v>0.01228871751365971</v>
+        <v>0.01486184281563238</v>
       </c>
       <c r="T16">
-        <v>0.01228871751365971</v>
+        <v>0.01486184281563238</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>16.36992</v>
+        <v>29.83382566666667</v>
       </c>
       <c r="H17">
-        <v>49.10976000000001</v>
+        <v>89.50147699999999</v>
       </c>
       <c r="I17">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="J17">
-        <v>0.1498111153557632</v>
+        <v>0.2305122126059151</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.627053</v>
+        <v>48.795048</v>
       </c>
       <c r="N17">
-        <v>76.881159</v>
+        <v>146.385144</v>
       </c>
       <c r="O17">
-        <v>0.6506649152692258</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="P17">
-        <v>0.6506649152692259</v>
+        <v>0.7576655390434474</v>
       </c>
       <c r="Q17">
-        <v>419.5128074457601</v>
+        <v>1455.742955428632</v>
       </c>
       <c r="R17">
-        <v>3775.61526701184</v>
+        <v>13101.68659885769</v>
       </c>
       <c r="S17">
-        <v>0.09747683667934587</v>
+        <v>0.1746511598201584</v>
       </c>
       <c r="T17">
-        <v>0.09747683667934588</v>
+        <v>0.1746511598201584</v>
       </c>
     </row>
   </sheetData>
